--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>tictack</t>
   </si>
@@ -140,6 +140,54 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>выводить крестих/нолик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ассемблер : </t>
+  </si>
+  <si>
+    <t>#########################################################################################################################################</t>
+  </si>
+  <si>
+    <t>1. создавать таблицу</t>
+  </si>
+  <si>
+    <t>2. решать кто делает ход:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           А. человек: считывать из BBB пока не получится корректный адрес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Б. Мега AI делает корректный ход</t>
+  </si>
+  <si>
+    <t>3. Отправлять ход в LLL</t>
+  </si>
+  <si>
+    <t>4. Проверять на конец игры wp/wb/draw</t>
+  </si>
+  <si>
+    <t>5.если конец то отправить в WIN сигнал иначе на 2 пункт</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>5.</t>
   </si>
 </sst>
 </file>
@@ -481,20 +529,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" customWidth="1"/>
     <col min="5" max="5" width="45.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="70.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -507,14 +555,17 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -522,16 +573,24 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -545,8 +604,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -560,7 +626,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -573,73 +647,123 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="P8" t="s">
+      <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="U8" t="s">
+      <c r="M8" t="s">
         <v>32</v>
       </c>
-      <c r="W8" t="s">
+      <c r="O8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q9" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="R9" t="s">
+      <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="S9" t="s">
+      <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="U9" t="s">
+      <c r="M9" t="s">
         <v>33</v>
       </c>
-      <c r="W9" t="s">
+      <c r="O9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="R10" t="s">
+      <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="S10" t="s">
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="U10" t="s">
+      <c r="M10" t="s">
         <v>34</v>
       </c>
-      <c r="W10" t="s">
+      <c r="O10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
         <v>11</v>
       </c>
-      <c r="R11" t="s">
+      <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="S11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="W11" t="s">
+      <c r="O11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="T12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
         <v>18</v>
       </c>
-      <c r="W12" t="s">
+      <c r="O12" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
